--- a/Fall23_Grades.xlsx
+++ b/Fall23_Grades.xlsx
@@ -1,36 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashap/Documents/MSE/ENGR2910/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD6139B-BE88-184B-A4A0-FB46FEDF5D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4909921-0622-DA43-9093-6D981EC2860A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="31260" windowHeight="16860" xr2:uid="{47D13744-5F57-6A4B-8CFE-C4A7E62258B8}"/>
+    <workbookView xWindow="10900" yWindow="500" windowWidth="29400" windowHeight="16840" xr2:uid="{47D13744-5F57-6A4B-8CFE-C4A7E62258B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$N$5:$N$9</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$O$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$P$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$P$5:$P$9</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$Q$4</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$Q$5:$Q$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$O$5:$O$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$P$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$P$5:$P$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$Q$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$Q$5:$Q$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$N$5:$N$9</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$O$4</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$O$5:$O$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="27">
   <si>
     <t>Exam1</t>
   </si>
@@ -132,7 +116,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>E</t>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -373,7 +357,7 @@
                   <c:v>D</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>E</c:v>
+                  <c:v>F</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -450,7 +434,7 @@
                   <c:v>D</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>E</c:v>
+                  <c:v>F</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -461,6 +445,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -512,7 +511,7 @@
                   <c:v>D</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>E</c:v>
+                  <c:v>F</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1621,8 +1620,8 @@
   </sheetPr>
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1710,17 +1709,22 @@
         <f>(D3+8) + (100-(D3+8))/3</f>
         <v>89.333333333333329</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="9">
+        <v>55</v>
+      </c>
+      <c r="G3" s="9">
+        <f>(F3) + (100-(F3))/3</f>
+        <v>70</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="13">
         <f>((0.2*B3)+(0.1*C3)+(0.2*E3)+(0.2*G3))/(0.7)</f>
-        <v>39.80952380952381</v>
+        <v>59.809523809523817</v>
       </c>
       <c r="K3" s="10">
         <f>((0.2*B3)+(0.1*C3)+(0.2*E3)+(0.2*G3)+(0.3*I3))/(1)</f>
-        <v>27.866666666666667</v>
+        <v>41.866666666666667</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>12</v>
@@ -1786,7 +1790,9 @@
       <c r="O5" s="2">
         <v>3</v>
       </c>
-      <c r="P5" s="2"/>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -1825,7 +1831,9 @@
       <c r="O6" s="2">
         <v>4</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="P6" s="2">
+        <v>3</v>
+      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -1846,8 +1854,13 @@
         <f>(D7+8) + (100-(D7+8))/3</f>
         <v>92.666666666666671</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="5">
+        <v>76</v>
+      </c>
+      <c r="G7" s="9">
+        <f>(F7) + (100-(F7))/3</f>
+        <v>84</v>
+      </c>
       <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1857,7 +1870,7 @@
       </c>
       <c r="J7" s="13">
         <f>((0.2*B7)+(0.1*C7)+(0.2*E7)+(0.2*G7))/(0.7)</f>
-        <v>40.761904761904766</v>
+        <v>64.761904761904773</v>
       </c>
       <c r="K7" s="11" t="e">
         <f>((0.2*B7)+(0.1*C7)+(0.2*E7)+(0.2*G7)+(0.3*I7))/(1)</f>
@@ -1872,7 +1885,9 @@
       <c r="O7" s="2">
         <v>1</v>
       </c>
-      <c r="P7" s="2"/>
+      <c r="P7" s="2">
+        <v>3</v>
+      </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -1897,7 +1912,9 @@
       <c r="O8" s="2">
         <v>1</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -1934,7 +1951,9 @@
       <c r="O9" s="2">
         <v>1</v>
       </c>
-      <c r="P9" s="2"/>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -1992,7 +2011,8 @@
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9">
-        <v>65</v>
+        <f>(F11) + (100-(F11))/3</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>14</v>
@@ -2003,7 +2023,7 @@
       </c>
       <c r="J11" s="13">
         <f>((0.2*B11)+(0.1*C11)+(0.2*E11)+(0.2*G11))/(0.7)</f>
-        <v>59.952380952380956</v>
+        <v>50.904761904761905</v>
       </c>
       <c r="K11" s="10" t="e">
         <f>((0.2*B11)+(0.1*C11)+(0.2*E11)+(0.2*G11)+(0.3*I11))/(1)</f>
@@ -2124,11 +2144,12 @@
         <f>(D15+8) + (100-(D15+8))/3</f>
         <v>65.333333333333329</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="5">
-        <v>87</v>
+      <c r="F15" s="5">
+        <v>20</v>
+      </c>
+      <c r="G15" s="9">
+        <f>(F15) + (100-(F15))/3</f>
+        <v>46.666666666666671</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>14</v>
@@ -2139,7 +2160,7 @@
       </c>
       <c r="J15" s="13">
         <f>((0.2*B15)+(0.1*C15)+(0.2*E15)+(0.2*G15))/(0.7)</f>
-        <v>57.809523809523817</v>
+        <v>46.285714285714285</v>
       </c>
       <c r="K15" s="11" t="e">
         <f>((0.2*B15)+(0.1*C15)+(0.2*E15)+(0.2*G15)+(0.3*I15))/(1)</f>
@@ -2246,11 +2267,12 @@
         <f>(D19+8) + (100-(D19+8))/3</f>
         <v>90.666666666666671</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>14</v>
+      <c r="F19" s="9">
+        <v>70</v>
       </c>
       <c r="G19" s="9">
-        <v>95</v>
+        <f>(F19) + (100-(F19))/3</f>
+        <v>80</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>14</v>
@@ -2261,7 +2283,7 @@
       </c>
       <c r="J19" s="13">
         <f>((0.2*B19)+(0.1*C19)+(0.2*E19)+(0.2*G19))/(0.7)</f>
-        <v>67.333333333333343</v>
+        <v>63.047619047619058</v>
       </c>
       <c r="K19" s="10" t="e">
         <f>((0.2*B19)+(0.1*C19)+(0.2*E19)+(0.2*G19)+(0.3*I19))/(1)</f>
@@ -2354,9 +2376,12 @@
         <f>(D23+8) + (100-(D23+8))/3</f>
         <v>55.333333333333329</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5">
-        <v>65</v>
+      <c r="F23" s="5">
+        <v>96</v>
+      </c>
+      <c r="G23" s="9">
+        <f>(F23) + (100-(F23))/3</f>
+        <v>97.333333333333329</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>14</v>
@@ -2367,7 +2392,7 @@
       </c>
       <c r="J23" s="13">
         <f>((0.2*B23)+(0.1*C23)+(0.2*E23)+(0.2*G23))/(0.7)</f>
-        <v>48.666666666666664</v>
+        <v>57.904761904761905</v>
       </c>
       <c r="K23" s="11" t="e">
         <f>((0.2*B23)+(0.1*C23)+(0.2*E23)+(0.2*G23)+(0.3*I23))/(1)</f>
@@ -2460,11 +2485,12 @@
         <f>(D27+8) + (100-(D27+8))/3</f>
         <v>85.333333333333329</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>14</v>
+      <c r="F27" s="9">
+        <v>50</v>
       </c>
       <c r="G27" s="9">
-        <v>95</v>
+        <f>(F27) + (100-(F27))/3</f>
+        <v>66.666666666666671</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>14</v>
@@ -2475,7 +2501,7 @@
       </c>
       <c r="J27" s="13">
         <f>((0.2*B27)+(0.1*C27)+(0.2*E27)+(0.2*G27))/(0.7)</f>
-        <v>65.80952380952381</v>
+        <v>57.71428571428573</v>
       </c>
       <c r="K27" s="10" t="e">
         <f>((0.2*B27)+(0.1*C27)+(0.2*E27)+(0.2*G27)+(0.3*I27))/(1)</f>
@@ -2568,9 +2594,12 @@
         <f>(D31+8) + (100-(D31+8))/3</f>
         <v>78</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5">
-        <v>65</v>
+      <c r="F31" s="5">
+        <v>72</v>
+      </c>
+      <c r="G31" s="9">
+        <f>(F31) + (100-(F31))/3</f>
+        <v>81.333333333333329</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>14</v>
@@ -2581,7 +2610,7 @@
       </c>
       <c r="J31" s="13">
         <f>((0.2*B31)+(0.1*C31)+(0.2*E31)+(0.2*G31))/(0.7)</f>
-        <v>55.142857142857146</v>
+        <v>59.809523809523817</v>
       </c>
       <c r="K31" s="11" t="e">
         <f>((0.2*B31)+(0.1*C31)+(0.2*E31)+(0.2*G31)+(0.3*I31))/(1)</f>
@@ -2674,11 +2703,12 @@
         <f>(D35) + (100-(D35))/3</f>
         <v>97.333333333333329</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>14</v>
+      <c r="F35" s="9">
+        <v>60</v>
       </c>
       <c r="G35" s="9">
-        <v>95</v>
+        <f>(F35) + (100-(F35))/3</f>
+        <v>73.333333333333329</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>14</v>
@@ -2689,7 +2719,7 @@
       </c>
       <c r="J35" s="13">
         <f>((0.2*B35)+(0.1*C35)+(0.2*E35)+(0.2*G35))/(0.7)</f>
-        <v>69.238095238095241</v>
+        <v>63.047619047619051</v>
       </c>
       <c r="K35" s="10" t="e">
         <f>((0.2*B35)+(0.1*C35)+(0.2*E35)+(0.2*G35)+(0.3*I35))/(1)</f>
@@ -2782,9 +2812,12 @@
         <f>(D39+8) + (100-(D39+8))/3</f>
         <v>86.666666666666671</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5">
-        <v>65</v>
+      <c r="F39" s="5">
+        <v>59</v>
+      </c>
+      <c r="G39" s="9">
+        <f>(F39) + (100-(F39))/3</f>
+        <v>72.666666666666671</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>14</v>
@@ -2795,7 +2828,7 @@
       </c>
       <c r="J39" s="13">
         <f>((0.2*B39)+(0.1*C39)+(0.2*E39)+(0.2*G39))/(0.7)</f>
-        <v>57.619047619047628</v>
+        <v>59.809523809523824</v>
       </c>
       <c r="K39" s="11" t="e">
         <f>((0.2*B39)+(0.1*C39)+(0.2*E39)+(0.2*G39)+(0.3*I39))/(1)</f>
@@ -2824,36 +2857,36 @@
     <sortCondition ref="A3:A23"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="H37:I37"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="33" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
